--- a/classification/droptc/drone-sbert/unfreeze/87212562/prediction.xlsx
+++ b/classification/droptc/drone-sbert/unfreeze/87212562/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9829145073890686</v>
+        <v>0.8853418827056885</v>
       </c>
     </row>
     <row r="3">
@@ -511,14 +511,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9118503928184509</v>
+        <v>0.9978001713752747</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9382598400115967</v>
+        <v>0.9978420734405518</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9966629147529602</v>
+        <v>0.9977914094924927</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9966138005256653</v>
+        <v>0.9796196222305298</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9966856837272644</v>
+        <v>0.9977908134460449</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.996692419052124</v>
+        <v>0.9784583449363708</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4518999457359314</v>
+        <v>0.9810912609100342</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9966979026794434</v>
+        <v>0.9978612065315247</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9552963376045227</v>
+        <v>0.9978001713752747</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9967047572135925</v>
+        <v>0.9978844523429871</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9966723918914795</v>
+        <v>0.9978502988815308</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9826052188873291</v>
+        <v>0.9978784322738647</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9775935411453247</v>
+        <v>0.9978886246681213</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.996708869934082</v>
+        <v>0.9978775978088379</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9329344630241394</v>
+        <v>0.9978746175765991</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9756017327308655</v>
+        <v>0.9978740215301514</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8292694687843323</v>
+        <v>0.9978658556938171</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9966451525688171</v>
+        <v>0.9978826642036438</v>
       </c>
     </row>
     <row r="21">
@@ -1015,14 +1015,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9873151779174805</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9167736172676086</v>
+        <v>0.9978356957435608</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9966511130332947</v>
+        <v>0.9978315234184265</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.974984884262085</v>
+        <v>0.9978740215301514</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9967207312583923</v>
+        <v>0.9893335700035095</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.982795774936676</v>
+        <v>0.9672247767448425</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9453577995300293</v>
+        <v>0.9892874956130981</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9965952038764954</v>
+        <v>0.9977051615715027</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9966863989830017</v>
+        <v>0.9893800616264343</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.996673583984375</v>
+        <v>0.9872016906738281</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9967097043991089</v>
+        <v>0.9872810244560242</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9966115355491638</v>
+        <v>0.9978640675544739</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9966490864753723</v>
+        <v>0.9978752136230469</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9966953992843628</v>
+        <v>0.9978947043418884</v>
       </c>
     </row>
     <row r="35">
@@ -1407,14 +1407,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9812316298484802</v>
+        <v>0.9978797435760498</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9752750396728516</v>
+        <v>0.9977902173995972</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9966840147972107</v>
+        <v>0.9977974891662598</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9966302514076233</v>
+        <v>0.9112034440040588</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9966884255409241</v>
+        <v>0.9978653788566589</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9966676831245422</v>
+        <v>0.9978140592575073</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9966124892234802</v>
+        <v>0.9978792667388916</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9824802279472351</v>
+        <v>0.9978660941123962</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.975762665271759</v>
+        <v>0.9978508949279785</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9823974370956421</v>
+        <v>0.997760534286499</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.974984884262085</v>
+        <v>0.9978487491607666</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9966895580291748</v>
+        <v>0.9978601336479187</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9963002800941467</v>
+        <v>0.9978735446929932</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9967150688171387</v>
+        <v>0.9892162084579468</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9966436624526978</v>
+        <v>0.98678058385849</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8266433477401733</v>
+        <v>0.9978013634681702</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9967221617698669</v>
+        <v>0.9978786706924438</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9978796243667603</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.982795774936676</v>
+        <v>0.9978039860725403</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9966352581977844</v>
+        <v>0.9978703260421753</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9966995120048523</v>
+        <v>0.9893335700035095</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9708002209663391</v>
+        <v>0.9978564381599426</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9965787529945374</v>
+        <v>0.9978224039077759</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9965407252311707</v>
+        <v>0.9893800616264343</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9963862895965576</v>
+        <v>0.9813008308410645</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9764344692230225</v>
+        <v>0.9873340129852295</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9967247843742371</v>
+        <v>0.9978267550468445</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9825909733772278</v>
+        <v>0.997846245765686</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9874287247657776</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.982720673084259</v>
+        <v>0.9792329668998718</v>
       </c>
     </row>
     <row r="65">
@@ -2247,14 +2247,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9966697096824646</v>
+        <v>0.9722775220870972</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9965511560440063</v>
+        <v>0.9978716373443604</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9966775178909302</v>
+        <v>0.9978477954864502</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9848529100418091</v>
+        <v>0.9892170429229736</v>
       </c>
     </row>
     <row r="69">
@@ -2359,14 +2359,14 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9966891407966614</v>
+        <v>0.905250608921051</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9966795444488525</v>
+        <v>0.9892421364784241</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9965894222259521</v>
+        <v>0.9890342950820923</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9966921806335449</v>
+        <v>0.9977909326553345</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9966788291931152</v>
+        <v>0.9872995018959045</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9772924184799194</v>
+        <v>0.9978526830673218</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9964170455932617</v>
+        <v>0.9796481728553772</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9783245921134949</v>
+        <v>0.9768319725990295</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.974806547164917</v>
+        <v>0.9978823065757751</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.982795774936676</v>
+        <v>0.9978207349777222</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.997829258441925</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9966781139373779</v>
+        <v>0.997860848903656</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.982560932636261</v>
+        <v>0.9978318810462952</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6487963795661926</v>
+        <v>0.9891941547393799</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9966936111450195</v>
+        <v>0.9978522062301636</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9966999888420105</v>
+        <v>0.9977425336837769</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9565236568450928</v>
+        <v>0.99781334400177</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9966791868209839</v>
+        <v>0.9978534579277039</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9967026114463806</v>
+        <v>0.9814721345901489</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9772924184799194</v>
+        <v>0.977959156036377</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9966939687728882</v>
+        <v>0.997853696346283</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9967097043991089</v>
+        <v>0.9978299736976624</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9966855645179749</v>
+        <v>0.9868925213813782</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9967001080513</v>
+        <v>0.9978299736976624</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9966393709182739</v>
+        <v>0.9869715571403503</v>
       </c>
     </row>
     <row r="94">
@@ -3059,14 +3059,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9244282841682434</v>
+        <v>0.9977731108665466</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9823355078697205</v>
+        <v>0.9977834820747375</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8099486827850342</v>
+        <v>0.9827598333358765</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9954828023910522</v>
+        <v>0.9805450439453125</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9824329614639282</v>
+        <v>0.9867171049118042</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8120047450065613</v>
+        <v>0.9977722764015198</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9966451525688171</v>
+        <v>0.9947698712348938</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9824152588844299</v>
+        <v>0.9892749190330505</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.996684730052948</v>
+        <v>0.9562901854515076</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9974465370178223</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9966006875038147</v>
+        <v>0.9489197134971619</v>
       </c>
     </row>
     <row r="105">
@@ -3367,14 +3367,14 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9967014193534851</v>
+        <v>0.9698787927627563</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9967327117919922</v>
+        <v>0.9978318810462952</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9564133882522583</v>
+        <v>0.9978693723678589</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.967770516872406</v>
+        <v>0.9890885949134827</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9967008233070374</v>
+        <v>0.9686205983161926</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.974984884262085</v>
+        <v>0.9872926473617554</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9966691136360168</v>
+        <v>0.9978930354118347</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9967221617698669</v>
+        <v>0.9978287816047668</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9979020357131958</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9757009148597717</v>
+        <v>0.9977774024009705</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9312236309051514</v>
+        <v>0.971290111541748</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9827903509140015</v>
+        <v>0.9978431463241577</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9558624625205994</v>
+        <v>0.9892874956130981</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9967114925384521</v>
+        <v>0.9977834820747375</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9965975880622864</v>
+        <v>0.9977666139602661</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9966805577278137</v>
+        <v>0.997861921787262</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9967266321182251</v>
+        <v>0.9893335700035095</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8575327396392822</v>
+        <v>0.9868729114532471</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9743283987045288</v>
+        <v>0.9978408813476562</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9821743965148926</v>
+        <v>0.9978001713752747</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9966920614242554</v>
+        <v>0.9869717955589294</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9827903509140015</v>
+        <v>0.9978370070457458</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9964710474014282</v>
+        <v>0.9977805018424988</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9766132831573486</v>
+        <v>0.9978483915328979</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9967086315155029</v>
+        <v>0.9892900586128235</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9966891407966614</v>
+        <v>0.9863992929458618</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9961899518966675</v>
+        <v>0.9978001713752747</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9966492056846619</v>
+        <v>0.9978647828102112</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9966968297958374</v>
+        <v>0.9978336691856384</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9967142343521118</v>
+        <v>0.9978645443916321</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6451403498649597</v>
+        <v>0.8914495706558228</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9892041087150574</v>
+        <v>0.9978705644607544</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9814565181732178</v>
+        <v>0.9869715571403503</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.957895040512085</v>
+        <v>0.9978432655334473</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9967017769813538</v>
+        <v>0.9894052147865295</v>
       </c>
     </row>
     <row r="140">
@@ -4347,14 +4347,14 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9966475367546082</v>
+        <v>0.8323505520820618</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.996677041053772</v>
+        <v>0.9879319071769714</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9775474071502686</v>
+        <v>0.9976407289505005</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9967137575149536</v>
+        <v>0.9977715611457825</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.996673583984375</v>
+        <v>0.9977993369102478</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9966505169868469</v>
+        <v>0.9978952407836914</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9966891407966614</v>
+        <v>0.9891287684440613</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9769022464752197</v>
+        <v>0.9978557229042053</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.996665894985199</v>
+        <v>0.9978779554367065</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9965952038764954</v>
+        <v>0.9893681406974792</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9713028073310852</v>
+        <v>0.9892749190330505</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9978366494178772</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9848314523696899</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9827903509140015</v>
+        <v>0.9978001713752747</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9965988993644714</v>
+        <v>0.9021946787834167</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9967076778411865</v>
+        <v>0.9978318810462952</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9967167973518372</v>
+        <v>0.997808039188385</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9911649823188782</v>
+        <v>0.9978925585746765</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.98678058385849</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.99669349193573</v>
+        <v>0.9978001713752747</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9775236845016479</v>
+        <v>0.9978717565536499</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.996650755405426</v>
+        <v>0.9977861642837524</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9966981410980225</v>
+        <v>0.6018920540809631</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9776346683502197</v>
+        <v>0.9978912472724915</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9826651811599731</v>
+        <v>0.9978558421134949</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9966662526130676</v>
+        <v>0.9978001713752747</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9966422319412231</v>
+        <v>0.9779701232910156</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9967318773269653</v>
+        <v>0.9977881908416748</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9826921224594116</v>
+        <v>0.9978001713752747</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9303323030471802</v>
+        <v>0.9978947043418884</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9966327548027039</v>
+        <v>0.997900128364563</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9966757297515869</v>
+        <v>0.9977700710296631</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9966244697570801</v>
+        <v>0.4935403168201447</v>
       </c>
     </row>
     <row r="173">
@@ -5271,14 +5271,14 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9966737031936646</v>
+        <v>0.6011536121368408</v>
       </c>
     </row>
     <row r="174">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E174" t="b">
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9966579675674438</v>
+        <v>0.8070226907730103</v>
       </c>
     </row>
     <row r="175">
@@ -5322,19 +5322,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E175" t="b">
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.996565043926239</v>
+        <v>0.9810912609100342</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9825261831283569</v>
+        <v>0.9591654539108276</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9766876101493835</v>
+        <v>0.9895182251930237</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9825261831283569</v>
+        <v>0.9893503785133362</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9967001080513</v>
+        <v>0.9892874956130981</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9967018961906433</v>
+        <v>0.9978341460227966</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9966375827789307</v>
+        <v>0.98713219165802</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9766132831573486</v>
+        <v>0.9978806972503662</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7210216522216797</v>
+        <v>0.9810912609100342</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9966666102409363</v>
+        <v>0.9861850142478943</v>
       </c>
     </row>
     <row r="185">
@@ -5602,19 +5602,19 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E185" t="b">
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.6617893576622009</v>
+        <v>0.9005827903747559</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9780910611152649</v>
+        <v>0.9977600574493408</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8920709490776062</v>
+        <v>0.9978975057601929</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9966543912887573</v>
+        <v>0.9978659749031067</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9967195391654968</v>
+        <v>0.5718657374382019</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9558508396148682</v>
+        <v>0.9977843165397644</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9964839220046997</v>
+        <v>0.9782574772834778</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9966986775398254</v>
+        <v>0.7363203763961792</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9773579835891724</v>
+        <v>0.9978692531585693</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9966816306114197</v>
+        <v>0.9978260397911072</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.996712327003479</v>
+        <v>0.9978457689285278</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9978477954864502</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9770747423171997</v>
+        <v>0.9874495267868042</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.8252741694450378</v>
+        <v>0.8846603035926819</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9553600549697876</v>
+        <v>0.9813795685768127</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7293189167976379</v>
+        <v>0.9973527193069458</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9743283987045288</v>
+        <v>0.9978470802307129</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9824152588844299</v>
+        <v>0.9977961778640747</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9966855645179749</v>
+        <v>0.8682099580764771</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9777318835258484</v>
+        <v>0.9978240728378296</v>
       </c>
     </row>
     <row r="205">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E205" t="b">
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9830195307731628</v>
+        <v>0.9805450439453125</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9966842532157898</v>
+        <v>0.9891457557678223</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9966956377029419</v>
+        <v>0.9978187084197998</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8182406425476074</v>
+        <v>0.9977244734764099</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9966769218444824</v>
+        <v>0.9978843331336975</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9967126846313477</v>
+        <v>0.9978000521659851</v>
       </c>
     </row>
   </sheetData>
